--- a/RPL_V2/xlsx/logo_media.xlsx
+++ b/RPL_V2/xlsx/logo_media.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="76">
   <si>
     <t>type</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>logo_skaros_t</t>
+  </si>
+  <si>
+    <t>2DROTS — российский любительский футбольный клуб из Москвы. Двукратный чемпион российской Медийной футбольной лиги и победитель Московского кубка селебрити-2023.</t>
   </si>
   <si>
     <t>logo_roma</t>
@@ -665,44 +668,47 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -716,43 +722,43 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,40 +775,40 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -819,40 +825,40 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,43 +872,43 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,43 +922,43 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -969,40 +975,40 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,43 +1022,43 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,43 +1072,43 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1116,43 +1122,43 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,43 +1172,43 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1219,40 +1225,40 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,43 +1272,43 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,43 +1322,43 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1369,40 +1375,40 @@
         <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1419,40 +1425,40 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1469,40 +1475,40 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,43 +1522,43 @@
         <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1569,40 +1575,40 @@
         <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,43 +1622,43 @@
         <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1669,40 +1675,40 @@
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,43 +1722,43 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
